--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_240__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_240__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5420,19 +5420,19 @@
                   <c:v>87.52259826660156</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.67910766601562</c:v>
+                  <c:v>94.67909240722656</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>97.00872802734375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.14275360107422</c:v>
+                  <c:v>56.14274978637695</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.54753494262695</c:v>
+                  <c:v>33.54753112792969</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.56097030639648</c:v>
+                  <c:v>52.56097412109375</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>96.06124877929688</c:v>
@@ -5441,16 +5441,16 @@
                   <c:v>97.36651611328125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88.78823852539062</c:v>
+                  <c:v>88.78825378417969</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>96.57395935058594</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.68310165405273</c:v>
+                  <c:v>49.68310546875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>97.16136169433594</c:v>
+                  <c:v>97.161376953125</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>89.98625183105469</c:v>
@@ -5465,10 +5465,10 @@
                   <c:v>72.89566040039062</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>72.26918792724609</c:v>
+                  <c:v>72.26918029785156</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.48347854614258</c:v>
+                  <c:v>14.48347663879395</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>97.32598876953125</c:v>
@@ -5477,19 +5477,19 @@
                   <c:v>81.77394104003906</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>55.25104904174805</c:v>
+                  <c:v>55.25105285644531</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>63.60692977905273</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>62.10190200805664</c:v>
+                  <c:v>62.10190582275391</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>89.94172668457031</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>96.97459411621094</c:v>
+                  <c:v>96.974609375</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>95.45550537109375</c:v>
@@ -5504,10 +5504,10 @@
                   <c:v>67.21991729736328</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>97.983642578125</c:v>
+                  <c:v>97.98362731933594</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>53.20352554321289</c:v>
+                  <c:v>53.20352172851562</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>78.65199279785156</c:v>
@@ -5522,10 +5522,10 @@
                   <c:v>84.95240783691406</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37.79934692382812</c:v>
+                  <c:v>37.79935073852539</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>89.30874633789062</c:v>
+                  <c:v>89.30876159667969</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>96.57325744628906</c:v>
@@ -5537,13 +5537,13 @@
                   <c:v>94.33070373535156</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>38.02678298950195</c:v>
+                  <c:v>38.02678680419922</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>86.91831970214844</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>83.13194274902344</c:v>
+                  <c:v>83.13192749023438</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>79.7261962890625</c:v>
@@ -5555,7 +5555,7 @@
                   <c:v>96.669921875</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>82.84890747070312</c:v>
+                  <c:v>82.84889221191406</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>97.03428649902344</c:v>
@@ -5567,7 +5567,7 @@
                   <c:v>82.74954223632812</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>85.86485290527344</c:v>
+                  <c:v>85.8648681640625</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>97.37791442871094</c:v>
@@ -5588,7 +5588,7 @@
                   <c:v>77.88006591796875</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>51.09892272949219</c:v>
+                  <c:v>51.09891891479492</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>96.91566467285156</c:v>
@@ -5657,7 +5657,7 @@
                   <c:v>62.64604187011719</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>53.67259979248047</c:v>
+                  <c:v>53.6725959777832</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>97.79940795898438</c:v>
@@ -6411,7 +6411,7 @@
         <v>93.9058</v>
       </c>
       <c r="F3">
-        <v>94.67910766601562</v>
+        <v>94.67909240722656</v>
       </c>
       <c r="G3">
         <v>99</v>
@@ -6475,7 +6475,7 @@
         <v>56.1604</v>
       </c>
       <c r="F5">
-        <v>56.14275360107422</v>
+        <v>56.14274978637695</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -6507,7 +6507,7 @@
         <v>19.1716</v>
       </c>
       <c r="F6">
-        <v>33.54753494262695</v>
+        <v>33.54753112792969</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6539,7 +6539,7 @@
         <v>58.4074</v>
       </c>
       <c r="F7">
-        <v>52.56097030639648</v>
+        <v>52.56097412109375</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -6611,7 +6611,7 @@
         <v>89.3151</v>
       </c>
       <c r="F10">
-        <v>88.78823852539062</v>
+        <v>88.78825378417969</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>50.2202</v>
       </c>
       <c r="F12">
-        <v>49.68310165405273</v>
+        <v>49.68310546875</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>97.3323</v>
       </c>
       <c r="F13">
-        <v>97.16136169433594</v>
+        <v>97.161376953125</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6771,7 +6771,7 @@
         <v>72.99850000000001</v>
       </c>
       <c r="F18">
-        <v>72.26918792724609</v>
+        <v>72.26918029785156</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>12.1498</v>
       </c>
       <c r="F19">
-        <v>14.48347854614258</v>
+        <v>14.48347663879395</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>57.9449</v>
       </c>
       <c r="F22">
-        <v>55.25104904174805</v>
+        <v>55.25105285644531</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>52.4045</v>
       </c>
       <c r="F24">
-        <v>62.10190200805664</v>
+        <v>62.10190582275391</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>96.85760000000001</v>
       </c>
       <c r="F26">
-        <v>96.97459411621094</v>
+        <v>96.974609375</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>97.9363</v>
       </c>
       <c r="F31">
-        <v>97.983642578125</v>
+        <v>97.98362731933594</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>53.6367</v>
       </c>
       <c r="F32">
-        <v>53.20352554321289</v>
+        <v>53.20352172851562</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>38.4808</v>
       </c>
       <c r="F37">
-        <v>37.79934692382812</v>
+        <v>37.79935073852539</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F38">
-        <v>89.30874633789062</v>
+        <v>89.30876159667969</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>38.6711</v>
       </c>
       <c r="F42">
-        <v>38.02678298950195</v>
+        <v>38.02678680419922</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>84.637</v>
       </c>
       <c r="F44">
-        <v>83.13194274902344</v>
+        <v>83.13192749023438</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>82.63800000000001</v>
       </c>
       <c r="F48">
-        <v>82.84890747070312</v>
+        <v>82.84889221191406</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>85.7353</v>
       </c>
       <c r="F52">
-        <v>85.86485290527344</v>
+        <v>85.8648681640625</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>51.2359</v>
       </c>
       <c r="F59">
-        <v>51.09892272949219</v>
+        <v>51.09891891479492</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>52.9032</v>
       </c>
       <c r="F82">
-        <v>53.67259979248047</v>
+        <v>53.6725959777832</v>
       </c>
     </row>
     <row r="83" spans="1:6">
